--- a/testData/ZhongWenTianDi/fpsyy-interface.xlsx
+++ b/testData/ZhongWenTianDi/fpsyy-interface.xlsx
@@ -4,57 +4,47 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="engineeringConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="apiFile" sheetId="4" r:id="rId2"/>
-    <sheet name="apiCase" sheetId="2" r:id="rId3"/>
-    <sheet name="function" sheetId="3" r:id="rId4"/>
+    <sheet name="apiFile" sheetId="4" r:id="rId1"/>
+    <sheet name="apiCase" sheetId="2" r:id="rId2"/>
+    <sheet name="function" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
-  <si>
-    <t>projectName</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>prot</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+  <si>
+    <t>api_id</t>
+  </si>
+  <si>
+    <t>api_name</t>
+  </si>
+  <si>
+    <t>api_url</t>
+  </si>
+  <si>
+    <t>api_engineering</t>
+  </si>
+  <si>
+    <t>api_describe</t>
+  </si>
+  <si>
+    <t>dd_up</t>
+  </si>
+  <si>
+    <t>订单上传</t>
+  </si>
+  <si>
+    <t>/fpsyy-interface/order/orderUpload.do</t>
   </si>
   <si>
     <t>fpsyy-interface</t>
   </si>
   <si>
-    <t>172.25.2.91</t>
-  </si>
-  <si>
-    <t>api_name</t>
-  </si>
-  <si>
-    <t>api_id</t>
-  </si>
-  <si>
-    <t>api_url</t>
-  </si>
-  <si>
-    <t>api_describe</t>
-  </si>
-  <si>
-    <t>订单上传</t>
-  </si>
-  <si>
-    <t>dd_up</t>
-  </si>
-  <si>
-    <t>/fpsyy-interface/order/orderUpload.do</t>
-  </si>
-  <si>
     <t>对接ERP系统上传订单</t>
   </si>
   <si>
@@ -67,10 +57,13 @@
     <t>api_header</t>
   </si>
   <si>
+    <t>is_file</t>
+  </si>
+  <si>
     <t>api_data</t>
   </si>
   <si>
-    <t>res</t>
+    <t>Expected_results</t>
   </si>
   <si>
     <t>is_run</t>
@@ -82,13 +75,13 @@
     <t>一行明细-无折扣-无扣除额-有单价数量</t>
   </si>
   <si>
-    <t>cache-control': "no-cache"</t>
+    <t>{"cache-control": "no-cache"}</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>dd_up_1h_wz_wk_yd.xml</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>函数</t>
@@ -120,10 +113,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -141,6 +134,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -148,8 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,30 +216,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,72 +256,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,187 +280,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,24 +471,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,17 +489,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,21 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -578,6 +547,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,156 +579,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,49 +1073,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="39.375" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>59133</v>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" ht="25" customHeight="1"/>
-    <row r="4" ht="26" customHeight="1"/>
-    <row r="5" ht="31" customHeight="1"/>
-    <row r="6" ht="27" customHeight="1"/>
-    <row r="7" ht="30" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1136,127 +1133,74 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:D5"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="39.375" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="22.625" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1266,51 +1210,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="89.25" customWidth="1"/>
+    <col min="2" max="2" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ZhongWenTianDi/fpsyy-interface.xlsx
+++ b/testData/ZhongWenTianDi/fpsyy-interface.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>api_id</t>
   </si>
@@ -27,6 +27,18 @@
     <t>api_url</t>
   </si>
   <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>cookie</t>
+  </si>
+  <si>
+    <t>tonken</t>
+  </si>
+  <si>
+    <t>api_project</t>
+  </si>
+  <si>
     <t>api_engineering</t>
   </si>
   <si>
@@ -42,6 +54,15 @@
     <t>/fpsyy-interface/order/orderUpload.do</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ZWCM</t>
+  </si>
+  <si>
     <t>fpsyy-interface</t>
   </si>
   <si>
@@ -57,12 +78,24 @@
     <t>api_header</t>
   </si>
   <si>
-    <t>is_file</t>
+    <t>data_IsFlie</t>
   </si>
   <si>
     <t>api_data</t>
   </si>
   <si>
+    <t>params_IsFlie</t>
+  </si>
+  <si>
+    <t>api_params</t>
+  </si>
+  <si>
+    <t>json_IsFile</t>
+  </si>
+  <si>
+    <t>api_json</t>
+  </si>
+  <si>
     <t>Expected_results</t>
   </si>
   <si>
@@ -82,6 +115,9 @@
   </si>
   <si>
     <t>dd_up_1h_wz_wk_yd.xml</t>
+  </si>
+  <si>
+    <t>up_dd_02</t>
   </si>
   <si>
     <t>函数</t>
@@ -113,9 +149,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -128,12 +164,110 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -144,58 +278,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,63 +292,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,6 +525,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -500,15 +569,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,30 +607,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,24 +1109,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="39.375" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1106,22 +1145,46 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1133,74 +1196,117 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="22.625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="G2"/>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1216,45 +1322,45 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="57.75" customWidth="1"/>
+    <col min="2" max="2" width="61.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
